--- a/myPOS Web Application-12-06-2025.xlsx
+++ b/myPOS Web Application-12-06-2025.xlsx
@@ -8,7 +8,10 @@
     <sheet state="visible" name="Dashboard" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Sign On" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Invoice" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sign Off" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Spot Check Action" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Spot Check" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Sign Off" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Sheet8" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="345">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -813,9 +816,9 @@
     <t>Opening float = 15000.00</t>
   </si>
   <si>
-    <t>1. Locate the "Sign On page" button on the page
+    <t>1. Locate the "Sign On" button on the page
 2. keep the default float point
-2. Click on Confirm button</t>
+3. Click on Confirm button</t>
   </si>
   <si>
     <t>User Sign on and direct to home page</t>
@@ -833,9 +836,9 @@
     <t>Opening float = 0</t>
   </si>
   <si>
-    <t>1. Locate the "Sign On page" button on the page
+    <t>1. Locate the "Sign On" button on the page
 2. type 0 in float point field
-2. Click on Confirm button</t>
+3. Click on Confirm button</t>
   </si>
   <si>
     <t>Displays a popup message to confirm Sign on with 0.00 opening float</t>
@@ -853,9 +856,9 @@
     <t>Opening float = 111111111111111111111115000.02</t>
   </si>
   <si>
-    <t>1. Locate the "Sign On page" button on the page
+    <t>1. Locate the "Sign On" button on the page
 2. type high invalid number in float point field
-2. Click on Confirm button</t>
+3. Click on Confirm button</t>
   </si>
   <si>
     <t>Display an error message</t>
@@ -873,9 +876,9 @@
     <t>Opening float = 15000.00000</t>
   </si>
   <si>
-    <t>1. Locate the "Sign On page" button on the page
+    <t>1. Locate the "Sign On" button on the page
 2. type more than two float points in float point field
-2. Click on Confirm button</t>
+3. Click on Confirm button</t>
   </si>
   <si>
     <t>Cannot be type more than two float points</t>
@@ -893,9 +896,9 @@
     <t>Opening float = empty field</t>
   </si>
   <si>
-    <t>1. Locate the "Sign On page" button on the page
+    <t>1. Locate the "Sign On" button on the page
 2. Keep empty the float point field
-2. Click on Confirm button</t>
+3. Click on Confirm button</t>
   </si>
   <si>
     <t>Successfuly display an error message  and cannot Sign on</t>
@@ -926,10 +929,198 @@
     <t>HOP_INV_001</t>
   </si>
   <si>
-    <t>Add a customer with loyalty card</t>
+    <t xml:space="preserve">Add a customer in current invoice </t>
+  </si>
+  <si>
+    <t>Successful logged-in user currently in the "invoice" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "Customer" button </t>
+  </si>
+  <si>
+    <t>1. Locate the "Customer" button on the page
+2. Click on Customer button</t>
+  </si>
+  <si>
+    <t>Display a numeric keypad interface</t>
+  </si>
+  <si>
+    <t>Successfully display a numeric keypad interface to add a customer</t>
   </si>
   <si>
     <t>HOP_INV_002</t>
+  </si>
+  <si>
+    <t>Add a price mode to invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "Price mode " button </t>
+  </si>
+  <si>
+    <t>1. Locate the "Price mode" button on the page
+2. Click on Price mode button</t>
+  </si>
+  <si>
+    <t>Display a message to select price mode</t>
+  </si>
+  <si>
+    <t>Successfully display a message to select price mode</t>
+  </si>
+  <si>
+    <t>Spot Check Action Page</t>
+  </si>
+  <si>
+    <t>HOP_SPT_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve action with valid reason and valid password </t>
+  </si>
+  <si>
+    <t>Logged-in user currently in the "Approve Action" Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason = Cash shortage check, Password = ADMIN1 </t>
+  </si>
+  <si>
+    <t>1. Click the "Reason" text field and enter a valid reason 
+2. Click the "Password" field and enter valid password 
+3. Click "Approve this action" button</t>
+  </si>
+  <si>
+    <t>Navigate to the Spot check page</t>
+  </si>
+  <si>
+    <t>User successfully navigate to the "Spot check page"</t>
+  </si>
+  <si>
+    <t>HOP_SPT_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve action with valid reason and wrong password </t>
+  </si>
+  <si>
+    <t>Reason = Cash shortage check, Password = ADMIN123</t>
+  </si>
+  <si>
+    <t>1. Click the "Reason" text field and enter a valid reason 
+2. Click the "Password" field and enter invalid password 
+3. Click "Approve this action" button</t>
+  </si>
+  <si>
+    <t>Display an error message on the screen as incorrect password</t>
+  </si>
+  <si>
+    <t>Display an error message on the screan and also popup message as " the entered password is invalid"</t>
+  </si>
+  <si>
+    <t>HOP_SPT_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve action with invalid reason and valid password </t>
+  </si>
+  <si>
+    <t>Reason = @7ucd*/]=-*9djw, Password = ADMIN1</t>
+  </si>
+  <si>
+    <t>1. Click the "Reason" text field and enter a invalid reason 
+2. Click the "Password" field and enter valid password 
+3. Click "Approve this action" button</t>
+  </si>
+  <si>
+    <t>HOP_SPT_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve action with invalid reason and wrong password </t>
+  </si>
+  <si>
+    <t>Reason = @7ucd*/]=-*9djw, Password = ADMIN1234</t>
+  </si>
+  <si>
+    <t>1. Click the "Reason" text field and enter a invalid reason 
+2. Click the "Password" field and enter invalid password 
+3. Click "Approve this action" button</t>
+  </si>
+  <si>
+    <t>HOP_SPT_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve action with reason feild empty and valid password </t>
+  </si>
+  <si>
+    <t>Reason ="keep the field empty", Password = ADMIN1235</t>
+  </si>
+  <si>
+    <t>1. Click the "Reason" text field and keep the field empty 
+2. Click the "Password" field and enter valid password 
+3. Click "Approve this action" button</t>
+  </si>
+  <si>
+    <t>Display an error message on the screen as "Reason field is empty" and button click event is disabled</t>
+  </si>
+  <si>
+    <t>Button is clickable , but not navigate or submit action</t>
+  </si>
+  <si>
+    <t>HOP_SPT_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approve action with both feild empty  </t>
+  </si>
+  <si>
+    <t>Reason = "empty", Password = "empty"</t>
+  </si>
+  <si>
+    <t>1. Keep the both fields are empty 
+2. Click "Approve this action" button</t>
+  </si>
+  <si>
+    <t>*** have to write test cases to Remote Module</t>
+  </si>
+  <si>
+    <t>User Sign Off</t>
+  </si>
+  <si>
+    <t>HOP_SOF_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User shift finished and Sign off  </t>
+  </si>
+  <si>
+    <t>User finished the shif and click on Sign off button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the button displayed "Yes"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "SIgn off" button 
+2. Click on the displayed "yes"button
+</t>
+  </si>
+  <si>
+    <t>User display a confirmation message to Sign off</t>
+  </si>
+  <si>
+    <t>User successfully display a confirmation message to Sign off</t>
+  </si>
+  <si>
+    <t>HOP_SOF_002</t>
+  </si>
+  <si>
+    <t>User shift not finished and accidentaly click on "sign off" button</t>
+  </si>
+  <si>
+    <t>User clicck on "Sign off button"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the button displayed "No"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "SIgn off" button 
+2. Click on the displayed "No"button
+</t>
+  </si>
+  <si>
+    <t>User Navigate to the home page</t>
   </si>
 </sst>
 </file>
@@ -952,7 +1143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +1186,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -1016,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1069,6 +1266,12 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1098,6 +1301,18 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3647,30 +3862,30 @@
         <v>286</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>20</v>
@@ -3678,24 +3893,53 @@
       <c r="C11" s="7">
         <v>45820.0</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="D11" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10:B11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10:B12">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J12">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K12">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3712,10 +3956,18 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="22.5"/>
+    <col customWidth="1" min="5" max="5" width="21.38"/>
+    <col customWidth="1" min="6" max="6" width="23.0"/>
+    <col customWidth="1" min="7" max="7" width="30.5"/>
+    <col customWidth="1" min="8" max="8" width="23.5"/>
+    <col customWidth="1" min="9" max="9" width="26.75"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3724,16 +3976,16 @@
     </row>
     <row r="3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3742,23 +3994,23 @@
     </row>
     <row r="5">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3">
-        <v>45819.0</v>
+        <v>45820.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4"/>
@@ -3771,54 +4023,392 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
+      <c r="C10" s="7">
+        <v>45820.0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>304</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10:B15">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J15">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K15">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45820.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3826,8 +4416,344 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I10">
-      <formula1>"Pass"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="22.0"/>
+    <col customWidth="1" min="5" max="5" width="20.13"/>
+    <col customWidth="1" min="6" max="6" width="21.75"/>
+    <col customWidth="1" min="7" max="7" width="20.75"/>
+    <col customWidth="1" min="8" max="8" width="24.38"/>
+    <col customWidth="1" min="9" max="9" width="18.75"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45820.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10:B11">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J11">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45820.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45820.0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10">
+      <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
